--- a/Teste_Variacoes_Eletrica.xlsx
+++ b/Teste_Variacoes_Eletrica.xlsx
@@ -493,8 +493,10 @@
           <t>3/4"</t>
         </is>
       </c>
-      <c r="E2" t="n">
-        <v>1</v>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
@@ -509,7 +511,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>NA|NA|3/4"|1.0|NA|3/4"|AMARELO</t>
+          <t>NA|NA|3/4"|1|NA|3/4"|AMARELO</t>
         </is>
       </c>
     </row>
@@ -526,8 +528,10 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="E3" t="n">
-        <v>1</v>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
@@ -542,7 +546,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>NA|NA|1/2"|1.0|NA|1/2"|CINZA</t>
+          <t>NA|NA|1/2"|1|NA|1/2"|CINZA</t>
         </is>
       </c>
     </row>
@@ -555,8 +559,10 @@
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="n">
-        <v>1</v>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -571,7 +577,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>NA|NA|NA|1.0|4x2|NA|AMARELO</t>
+          <t>NA|NA|NA|1|4x2|NA|AMARELO</t>
         </is>
       </c>
     </row>
@@ -584,8 +590,10 @@
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="n">
-        <v>1</v>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -596,7 +604,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>NA|NA|NA|1.0|NA|NA|BRANCO</t>
+          <t>NA|NA|NA|1|NA|NA|BRANCO</t>
         </is>
       </c>
     </row>
@@ -606,22 +614,28 @@
           <t>STECK DISJUNTOR DIN UNIPOLAR 10A CURVA C</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>1P</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="n">
-        <v>8</v>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>NA|1P|NA|8.0|NA|NA|NA</t>
+          <t>10|1P|NA|8|NA|NA|NA</t>
         </is>
       </c>
     </row>
@@ -631,22 +645,28 @@
           <t>STECK DISJUNTOR DIN BIPOLAR 40A CURVA C</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
       <c r="C7" t="inlineStr">
         <is>
           <t>2P</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="n">
-        <v>8</v>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>NA|2P|NA|8.0|NA|NA|NA</t>
+          <t>40|2P|NA|8|NA|NA|NA</t>
         </is>
       </c>
     </row>
@@ -656,22 +676,28 @@
           <t>STECK DISJUNTOR DIN BIPOLAR 50A CURVA C</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
       <c r="C8" t="inlineStr">
         <is>
           <t>2P</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="n">
-        <v>8</v>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>NA|2P|NA|8.0|NA|NA|NA</t>
+          <t>50|2P|NA|8|NA|NA|NA</t>
         </is>
       </c>
     </row>
@@ -684,8 +710,10 @@
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="n">
-        <v>11</v>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -700,7 +728,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>NA|NA|NA|11.0|4x4|NA|AMARELO</t>
+          <t>NA|NA|NA|11|4x4|NA|AMARELO</t>
         </is>
       </c>
     </row>
@@ -717,8 +745,10 @@
           <t>25mm</t>
         </is>
       </c>
-      <c r="E10" t="n">
-        <v>3</v>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
@@ -729,7 +759,7 @@
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>NA|NA|25mm|3.0|NA|3/4"|NA</t>
+          <t>NA|NA|25mm|3|NA|3/4"|NA</t>
         </is>
       </c>
     </row>
@@ -742,8 +772,10 @@
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="n">
-        <v>14</v>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -754,7 +786,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>NA|NA|NA|14.0|NA|NA|BRANCO</t>
+          <t>NA|NA|NA|14|NA|NA|BRANCO</t>
         </is>
       </c>
     </row>
@@ -768,18 +800,20 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>15x127mm</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>4.5</v>
+          <t>15x127</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>NA|NA|15x127mm|4.5|NA|NA|NA</t>
+          <t>NA|NA|15x127|4.5|NA|NA|NA</t>
         </is>
       </c>
     </row>
@@ -792,15 +826,17 @@
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="n">
-        <v>19</v>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>NA|NA|NA|19.0|NA|NA|NA</t>
+          <t>NA|NA|NA|19|NA|NA|NA</t>
         </is>
       </c>
     </row>
@@ -813,15 +849,17 @@
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="n">
-        <v>3</v>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>NA|NA|NA|3.0|NA|NA|NA</t>
+          <t>NA|NA|NA|3|NA|NA|NA</t>
         </is>
       </c>
     </row>
@@ -834,8 +872,10 @@
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="n">
-        <v>5</v>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -850,7 +890,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>NA|NA|NA|5.0|4x2|NA|PRETO</t>
+          <t>NA|NA|NA|5|4x2|NA|PRETO</t>
         </is>
       </c>
     </row>
@@ -867,8 +907,10 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="E16" t="n">
-        <v>1</v>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
@@ -883,7 +925,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>NA|NA|1/2"|1.0|NA|1/2"|AMARELO</t>
+          <t>NA|NA|1/2"|1|NA|1/2"|AMARELO</t>
         </is>
       </c>
     </row>
@@ -893,22 +935,28 @@
           <t>LUKMA DISJUNTOR DIN BIPOLAR 50A CURVA C</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
       <c r="C17" t="inlineStr">
         <is>
           <t>2P</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="n">
-        <v>25</v>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>NA|2P|NA|25.0|NA|NA|NA</t>
+          <t>50|2P|NA|25|NA|NA|NA</t>
         </is>
       </c>
     </row>
@@ -925,8 +973,10 @@
           <t>3/4"</t>
         </is>
       </c>
-      <c r="E18" t="n">
-        <v>1</v>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
@@ -941,7 +991,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>NA|NA|3/4"|1.0|NA|3/4"|CINZA</t>
+          <t>NA|NA|3/4"|1|NA|3/4"|CINZA</t>
         </is>
       </c>
     </row>
@@ -954,15 +1004,17 @@
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="n">
-        <v>5</v>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>NA|NA|NA|5.0|NA|NA|NA</t>
+          <t>NA|NA|NA|5|NA|NA|NA</t>
         </is>
       </c>
     </row>
@@ -975,8 +1027,10 @@
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="n">
-        <v>3.5</v>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -1000,8 +1054,10 @@
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="n">
-        <v>3</v>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
@@ -1012,7 +1068,7 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>NA|1P|NA|3.0|NA|12|NA</t>
+          <t>NA|1P|NA|3|NA|12|NA</t>
         </is>
       </c>
     </row>
@@ -1029,8 +1085,10 @@
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="n">
-        <v>3</v>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
@@ -1041,7 +1099,7 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>NA|2P|NA|3.0|NA|12|NA</t>
+          <t>NA|2P|NA|3|NA|12|NA</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1132,11 @@
           <t>CONECTOR WAGO 3P 08 A 4,0M 32A</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
       <c r="C24" t="inlineStr">
         <is>
           <t>3P</t>
@@ -1091,7 +1153,7 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>NA|3P|NA|NA|NA|08|NA</t>
+          <t>32|3P|NA|NA|NA|08|NA</t>
         </is>
       </c>
     </row>
@@ -1101,7 +1163,11 @@
           <t>CONECTOR WAGO 2P 08 A 4,0M 32A</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
       <c r="C25" t="inlineStr">
         <is>
           <t>2P</t>
@@ -1118,7 +1184,7 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>NA|2P|NA|NA|NA|08|NA</t>
+          <t>32|2P|NA|NA|NA|08|NA</t>
         </is>
       </c>
     </row>
@@ -1135,8 +1201,10 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="E26" t="n">
-        <v>1</v>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
@@ -1147,7 +1215,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>NA|NA|1"|1.0|NA|NA|CINZA</t>
+          <t>NA|NA|1"|1|NA|NA|CINZA</t>
         </is>
       </c>
     </row>
@@ -1164,8 +1232,10 @@
           <t>3/4"</t>
         </is>
       </c>
-      <c r="E27" t="n">
-        <v>1</v>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
@@ -1180,7 +1250,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>NA|NA|3/4"|1.0|NA|3/4"|CINZA</t>
+          <t>NA|NA|3/4"|1|NA|3/4"|CINZA</t>
         </is>
       </c>
     </row>
@@ -1201,15 +1271,17 @@
           <t>6mm</t>
         </is>
       </c>
-      <c r="E28" t="n">
-        <v>1</v>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>NA|3P|6mm|1.0|NA|NA|NA</t>
+          <t>NA|3P|6mm|1|NA|NA|NA</t>
         </is>
       </c>
     </row>
@@ -1230,15 +1302,17 @@
           <t>16mm</t>
         </is>
       </c>
-      <c r="E29" t="n">
-        <v>1</v>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>NA|3P|16mm|1.0|NA|NA|NA</t>
+          <t>NA|3P|16mm|1|NA|NA|NA</t>
         </is>
       </c>
     </row>
@@ -1248,22 +1322,28 @@
           <t>STECK DISJUNTOR DIN UNIPOLAR 20A CURVA C</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="C30" t="inlineStr">
         <is>
           <t>1P</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="n">
-        <v>8</v>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>NA|1P|NA|8.0|NA|NA|NA</t>
+          <t>20|1P|NA|8|NA|NA|NA</t>
         </is>
       </c>
     </row>
@@ -1276,8 +1356,10 @@
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="n">
-        <v>200</v>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
@@ -1288,7 +1370,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>NA|NA|NA|200.0|NA|NA|BRANCO</t>
+          <t>NA|NA|NA|200|NA|NA|BRANCO</t>
         </is>
       </c>
     </row>
@@ -1301,15 +1383,17 @@
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="n">
-        <v>3</v>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>NA|NA|NA|3.0|NA|NA|NA</t>
+          <t>NA|NA|NA|3|NA|NA|NA</t>
         </is>
       </c>
     </row>
@@ -1326,8 +1410,10 @@
           <t>10mm</t>
         </is>
       </c>
-      <c r="E33" t="n">
-        <v>20</v>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
@@ -1338,7 +1424,7 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>NA|NA|10mm|20.0|NA|03|NA</t>
+          <t>NA|NA|10mm|20|NA|03|NA</t>
         </is>
       </c>
     </row>
@@ -1355,8 +1441,10 @@
           <t>16mm</t>
         </is>
       </c>
-      <c r="E34" t="n">
-        <v>2.5</v>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
@@ -1380,8 +1468,10 @@
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="n">
-        <v>0.39</v>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -1424,8 +1514,10 @@
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
-      <c r="E37" t="n">
-        <v>5</v>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1440,7 +1532,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>NA|NA|NA|5.0|4x2|NA|AMARELO</t>
+          <t>NA|NA|NA|5|4x2|NA|AMARELO</t>
         </is>
       </c>
     </row>
@@ -1457,8 +1549,10 @@
           <t>25mm</t>
         </is>
       </c>
-      <c r="E38" t="n">
-        <v>50</v>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
@@ -1469,7 +1563,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>NA|NA|25mm|50.0|NA|NA|AMARELO</t>
+          <t>NA|NA|25mm|50|NA|NA|AMARELO</t>
         </is>
       </c>
     </row>
@@ -1482,8 +1576,10 @@
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" t="n">
-        <v>5</v>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1498,7 +1594,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>NA|NA|NA|5.0|4x2|NA|AMARELO</t>
+          <t>NA|NA|NA|5|4x2|NA|AMARELO</t>
         </is>
       </c>
     </row>
@@ -1534,8 +1630,10 @@
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="n">
-        <v>9</v>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1550,7 +1648,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>NA|NA|NA|9.0|3x3|NA|AMARELO</t>
+          <t>NA|NA|NA|9|3x3|NA|AMARELO</t>
         </is>
       </c>
     </row>
@@ -1567,8 +1665,10 @@
           <t>32mm</t>
         </is>
       </c>
-      <c r="E42" t="n">
-        <v>3</v>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -1579,7 +1679,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>NA|NA|32mm|3.0|NA|NA|AMARELO</t>
+          <t>NA|NA|32mm|3|NA|NA|AMARELO</t>
         </is>
       </c>
     </row>
@@ -1592,8 +1692,10 @@
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="n">
-        <v>14.5</v>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>14.5</t>
+        </is>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
@@ -1663,8 +1765,10 @@
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
-      <c r="E46" t="n">
-        <v>3</v>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
@@ -1675,7 +1779,7 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>NA|2P|NA|3.0|NA|12|NA</t>
+          <t>NA|2P|NA|3|NA|12|NA</t>
         </is>
       </c>
     </row>
@@ -1773,8 +1877,10 @@
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="n">
-        <v>23</v>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
@@ -1789,7 +1895,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>NA|1P|NA|23.0|NA|08|BRANCO</t>
+          <t>NA|1P|NA|23|NA|08|BRANCO</t>
         </is>
       </c>
     </row>
@@ -1799,7 +1905,11 @@
           <t>DISJUNTOR STECK SERIE SD61 16A 1P CURVA C 3KA</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr"/>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
       <c r="C51" t="inlineStr">
         <is>
           <t>1P</t>
@@ -1812,7 +1922,7 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>NA|1P|NA|NA|NA|NA|NA</t>
+          <t>16|1P|NA|NA|NA|NA|NA</t>
         </is>
       </c>
     </row>
@@ -1822,7 +1932,11 @@
           <t>DISJUNTOR STECK SERIE SD61 20A 1P CURVA C 3KA</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr"/>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="C52" t="inlineStr">
         <is>
           <t>1P</t>
@@ -1835,7 +1949,7 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>NA|1P|NA|NA|NA|NA|NA</t>
+          <t>20|1P|NA|NA|NA|NA|NA</t>
         </is>
       </c>
     </row>
@@ -1845,22 +1959,28 @@
           <t>STECK DISJUNTOR DIN UNIPOLAR 25A CURVA C</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr"/>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
       <c r="C53" t="inlineStr">
         <is>
           <t>1P</t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="n">
-        <v>8</v>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>NA|1P|NA|8.0|NA|NA|NA</t>
+          <t>25|1P|NA|8|NA|NA|NA</t>
         </is>
       </c>
     </row>
@@ -1870,22 +1990,28 @@
           <t>STECK DISJUNTOR DIN UNIPOLAR 32A CURVA C</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr"/>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
       <c r="C54" t="inlineStr">
         <is>
           <t>1P</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="n">
-        <v>8</v>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>NA|1P|NA|8.0|NA|NA|NA</t>
+          <t>32|1P|NA|8|NA|NA|NA</t>
         </is>
       </c>
     </row>
@@ -1895,7 +2021,11 @@
           <t>DISJUNTOR STECK SERIE SD61 40A 1P CURVA C 3KA</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr"/>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
       <c r="C55" t="inlineStr">
         <is>
           <t>1P</t>
@@ -1908,7 +2038,7 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>NA|1P|NA|NA|NA|NA|NA</t>
+          <t>40|1P|NA|NA|NA|NA|NA</t>
         </is>
       </c>
     </row>
@@ -1918,22 +2048,28 @@
           <t>STECK DISJUNTOR DIN BIPOLAR 10A CURVA C</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr"/>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="C56" t="inlineStr">
         <is>
           <t>2P</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="n">
-        <v>8</v>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>NA|2P|NA|8.0|NA|NA|NA</t>
+          <t>10|2P|NA|8|NA|NA|NA</t>
         </is>
       </c>
     </row>
@@ -1943,22 +2079,28 @@
           <t>STECK DISJUNTOR DIN BIPOLAR 32A CURVA C</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr"/>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
       <c r="C57" t="inlineStr">
         <is>
           <t>2P</t>
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
-      <c r="E57" t="n">
-        <v>8</v>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>NA|2P|NA|8.0|NA|NA|NA</t>
+          <t>32|2P|NA|8|NA|NA|NA</t>
         </is>
       </c>
     </row>
@@ -1968,7 +2110,11 @@
           <t>DISJUNTOR STECK SERIE SD62 40A 2P CURVA C 3KA</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr"/>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
       <c r="C58" t="inlineStr">
         <is>
           <t>2P</t>
@@ -1981,7 +2127,7 @@
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>NA|2P|NA|NA|NA|NA|NA</t>
+          <t>40|2P|NA|NA|NA|NA|NA</t>
         </is>
       </c>
     </row>
@@ -1991,7 +2137,11 @@
           <t>DISJUNTOR STECK SERIE SD62 50A 2P CURVA C 3KA</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr"/>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
       <c r="C59" t="inlineStr">
         <is>
           <t>2P</t>
@@ -2004,7 +2154,7 @@
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>NA|2P|NA|NA|NA|NA|NA</t>
+          <t>50|2P|NA|NA|NA|NA|NA</t>
         </is>
       </c>
     </row>
@@ -2014,22 +2164,28 @@
           <t>STECK DISJUNTOR DIN BIPOLAR 63A CURVA C</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr"/>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
       <c r="C60" t="inlineStr">
         <is>
           <t>2P</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
-      <c r="E60" t="n">
-        <v>8</v>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>NA|2P|NA|8.0|NA|NA|NA</t>
+          <t>63|2P|NA|8|NA|NA|NA</t>
         </is>
       </c>
     </row>
@@ -2092,8 +2248,10 @@
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
-      <c r="E63" t="n">
-        <v>200</v>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
       </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
@@ -2104,7 +2262,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>NA|NA|NA|200.0|NA|NA|BRANCO</t>
+          <t>NA|NA|NA|200|NA|NA|BRANCO</t>
         </is>
       </c>
     </row>
@@ -2163,8 +2321,10 @@
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
-      <c r="E66" t="n">
-        <v>14</v>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
@@ -2179,7 +2339,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>NA|NA|NA|14.0|NA|03|BRANCO</t>
+          <t>NA|NA|NA|14|NA|03|BRANCO</t>
         </is>
       </c>
     </row>
@@ -2192,8 +2352,10 @@
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
-      <c r="E67" t="n">
-        <v>15</v>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
       </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
@@ -2204,7 +2366,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>NA|NA|NA|15.0|NA|NA|BRANCO</t>
+          <t>NA|NA|NA|15|NA|NA|BRANCO</t>
         </is>
       </c>
     </row>
@@ -2217,8 +2379,10 @@
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
-      <c r="E68" t="n">
-        <v>14.5</v>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>14.5</t>
+        </is>
       </c>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
@@ -2242,8 +2406,10 @@
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
-      <c r="E69" t="n">
-        <v>7</v>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -2258,7 +2424,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>NA|NA|NA|7.0|4x2|NA|AMARELO</t>
+          <t>NA|NA|NA|7|4x2|NA|AMARELO</t>
         </is>
       </c>
     </row>
@@ -2271,8 +2437,10 @@
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
-      <c r="E70" t="n">
-        <v>16.5</v>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>16.5</t>
+        </is>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
@@ -2296,8 +2464,10 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="E71" t="n">
-        <v>22</v>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
@@ -2308,7 +2478,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>NA|NA|1"|22.0|NA|NA|PRETO</t>
+          <t>NA|NA|1"|22|NA|NA|PRETO</t>
         </is>
       </c>
     </row>
@@ -2403,7 +2573,7 @@
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2x1mm</t>
+          <t>1.5mm</t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
@@ -2420,7 +2590,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>NA|NA|2x1mm|NA|NA|02|BRANCO</t>
+          <t>NA|NA|1.5mm|NA|NA|02|BRANCO</t>
         </is>
       </c>
     </row>
@@ -2437,8 +2607,10 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="E76" t="n">
-        <v>23</v>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
       </c>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
@@ -2449,7 +2621,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>NA|NA|1"|23.0|NA|NA|AMARELO</t>
+          <t>NA|NA|1"|23|NA|NA|AMARELO</t>
         </is>
       </c>
     </row>
@@ -2766,8 +2938,10 @@
           <t>1.5mm</t>
         </is>
       </c>
-      <c r="E89" t="n">
-        <v>1.5</v>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
       </c>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr">
@@ -2799,8 +2973,10 @@
           <t>4mm</t>
         </is>
       </c>
-      <c r="E90" t="n">
-        <v>1</v>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
@@ -2811,7 +2987,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>NA|NA|4mm|1.0|NA|NA|AMARELO</t>
+          <t>NA|NA|4mm|1|NA|NA|AMARELO</t>
         </is>
       </c>
     </row>
@@ -2828,8 +3004,10 @@
           <t>0.5mm</t>
         </is>
       </c>
-      <c r="E91" t="n">
-        <v>11.5</v>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>11.5</t>
+        </is>
       </c>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr"/>
@@ -2857,8 +3035,10 @@
           <t>1.5mm</t>
         </is>
       </c>
-      <c r="E92" t="n">
-        <v>11.5</v>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>11.5</t>
+        </is>
       </c>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr">
@@ -2887,18 +3067,20 @@
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr">
         <is>
-          <t>4x90mm</t>
-        </is>
-      </c>
-      <c r="E93" t="n">
-        <v>24</v>
+          <t>4x90</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
       </c>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>NA|NA|4x90mm|24.0|NA|NA|NA</t>
+          <t>NA|NA|4x90|24|NA|NA|NA</t>
         </is>
       </c>
     </row>
@@ -2912,18 +3094,20 @@
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2x90mm</t>
-        </is>
-      </c>
-      <c r="E94" t="n">
-        <v>24</v>
+          <t>2x90</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
       </c>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>NA|NA|2x90mm|24.0|NA|NA|NA</t>
+          <t>NA|NA|2x90|24|NA|NA|NA</t>
         </is>
       </c>
     </row>
@@ -2997,8 +3181,10 @@
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr"/>
-      <c r="E98" t="n">
-        <v>25</v>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
       </c>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr">
@@ -3013,7 +3199,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>NA|NA|NA|25.0|NA|08|CINZA</t>
+          <t>NA|NA|NA|25|NA|08|CINZA</t>
         </is>
       </c>
     </row>
@@ -3107,15 +3293,17 @@
       <c r="B102" t="inlineStr"/>
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr"/>
-      <c r="E102" t="n">
-        <v>4</v>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>NA|NA|NA|4.0|NA|NA|NA</t>
+          <t>NA|NA|NA|4|NA|NA|NA</t>
         </is>
       </c>
     </row>
@@ -3128,8 +3316,10 @@
       <c r="B103" t="inlineStr"/>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr"/>
-      <c r="E103" t="n">
-        <v>4</v>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
@@ -3140,7 +3330,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>NA|NA|NA|4.0|NA|NA|PRETO</t>
+          <t>NA|NA|NA|4|NA|NA|PRETO</t>
         </is>
       </c>
     </row>
@@ -3153,8 +3343,10 @@
       <c r="B104" t="inlineStr"/>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr"/>
-      <c r="E104" t="n">
-        <v>13</v>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr">
@@ -3165,7 +3357,7 @@
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
-          <t>NA|NA|NA|13.0|NA|02|NA</t>
+          <t>NA|NA|NA|13|NA|02|NA</t>
         </is>
       </c>
     </row>
@@ -3220,8 +3412,10 @@
       <c r="B107" t="inlineStr"/>
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr"/>
-      <c r="E107" t="n">
-        <v>11</v>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
@@ -3232,7 +3426,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>NA|NA|NA|11.0|NA|NA|BRANCO</t>
+          <t>NA|NA|NA|11|NA|NA|BRANCO</t>
         </is>
       </c>
     </row>
@@ -3575,15 +3769,17 @@
       <c r="B122" t="inlineStr"/>
       <c r="C122" t="inlineStr"/>
       <c r="D122" t="inlineStr"/>
-      <c r="E122" t="n">
-        <v>3</v>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr">
         <is>
-          <t>NA|NA|NA|3.0|NA|NA|NA</t>
+          <t>NA|NA|NA|3|NA|NA|NA</t>
         </is>
       </c>
     </row>
@@ -3692,8 +3888,10 @@
       <c r="B127" t="inlineStr"/>
       <c r="C127" t="inlineStr"/>
       <c r="D127" t="inlineStr"/>
-      <c r="E127" t="n">
-        <v>17</v>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
       </c>
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="inlineStr">
@@ -3704,7 +3902,7 @@
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr">
         <is>
-          <t>NA|NA|NA|17.0|NA|03|NA</t>
+          <t>NA|NA|NA|17|NA|03|NA</t>
         </is>
       </c>
     </row>
@@ -3717,8 +3915,10 @@
       <c r="B128" t="inlineStr"/>
       <c r="C128" t="inlineStr"/>
       <c r="D128" t="inlineStr"/>
-      <c r="E128" t="n">
-        <v>20</v>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
       </c>
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr">
@@ -3729,7 +3929,7 @@
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr">
         <is>
-          <t>NA|NA|NA|20.0|NA|08|NA</t>
+          <t>NA|NA|NA|20|NA|08|NA</t>
         </is>
       </c>
     </row>
@@ -3769,8 +3969,10 @@
       <c r="B130" t="inlineStr"/>
       <c r="C130" t="inlineStr"/>
       <c r="D130" t="inlineStr"/>
-      <c r="E130" t="n">
-        <v>7</v>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -3785,7 +3987,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>NA|NA|NA|7.0|4x2|NA|PRETO</t>
+          <t>NA|NA|NA|7|4x2|NA|PRETO</t>
         </is>
       </c>
     </row>
@@ -3798,8 +4000,10 @@
       <c r="B131" t="inlineStr"/>
       <c r="C131" t="inlineStr"/>
       <c r="D131" t="inlineStr"/>
-      <c r="E131" t="n">
-        <v>7</v>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
@@ -3814,7 +4018,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>NA|NA|NA|7.0|4x2|NA|AMARELO</t>
+          <t>NA|NA|NA|7|4x2|NA|AMARELO</t>
         </is>
       </c>
     </row>
@@ -3850,8 +4054,10 @@
       <c r="B133" t="inlineStr"/>
       <c r="C133" t="inlineStr"/>
       <c r="D133" t="inlineStr"/>
-      <c r="E133" t="n">
-        <v>6</v>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr"/>
@@ -3862,7 +4068,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>NA|NA|NA|6.0|NA|NA|PRETO</t>
+          <t>NA|NA|NA|6|NA|NA|PRETO</t>
         </is>
       </c>
     </row>
@@ -3875,8 +4081,10 @@
       <c r="B134" t="inlineStr"/>
       <c r="C134" t="inlineStr"/>
       <c r="D134" t="inlineStr"/>
-      <c r="E134" t="n">
-        <v>11.5</v>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>11.5</t>
+        </is>
       </c>
       <c r="F134" t="inlineStr"/>
       <c r="G134" t="inlineStr"/>
@@ -3897,22 +4105,28 @@
           <t>JNG DISJUNTOR DIN UNIPOLAR 16A CURVA C</t>
         </is>
       </c>
-      <c r="B135" t="inlineStr"/>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
       <c r="C135" t="inlineStr">
         <is>
           <t>1P</t>
         </is>
       </c>
       <c r="D135" t="inlineStr"/>
-      <c r="E135" t="n">
-        <v>1.8</v>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>1.8</t>
+        </is>
       </c>
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr">
         <is>
-          <t>NA|1P|NA|1.8|NA|NA|NA</t>
+          <t>16|1P|NA|1.8|NA|NA|NA</t>
         </is>
       </c>
     </row>
@@ -3922,22 +4136,28 @@
           <t>JNG DISJUNTOR DIN UNIPOLAR 20A CURVA C</t>
         </is>
       </c>
-      <c r="B136" t="inlineStr"/>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="C136" t="inlineStr">
         <is>
           <t>1P</t>
         </is>
       </c>
       <c r="D136" t="inlineStr"/>
-      <c r="E136" t="n">
-        <v>1.8</v>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>1.8</t>
+        </is>
       </c>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
         <is>
-          <t>NA|1P|NA|1.8|NA|NA|NA</t>
+          <t>20|1P|NA|1.8|NA|NA|NA</t>
         </is>
       </c>
     </row>
@@ -3947,22 +4167,28 @@
           <t>JNG DISJUNTOR DIN UNIPOLAR 25A CURVA C</t>
         </is>
       </c>
-      <c r="B137" t="inlineStr"/>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
       <c r="C137" t="inlineStr">
         <is>
           <t>1P</t>
         </is>
       </c>
       <c r="D137" t="inlineStr"/>
-      <c r="E137" t="n">
-        <v>1.8</v>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>1.8</t>
+        </is>
       </c>
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr">
         <is>
-          <t>NA|1P|NA|1.8|NA|NA|NA</t>
+          <t>25|1P|NA|1.8|NA|NA|NA</t>
         </is>
       </c>
     </row>
@@ -3972,22 +4198,28 @@
           <t>JNG DISJUNTOR DIN UNIPOLAR 32A CURVA C</t>
         </is>
       </c>
-      <c r="B138" t="inlineStr"/>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
       <c r="C138" t="inlineStr">
         <is>
           <t>1P</t>
         </is>
       </c>
       <c r="D138" t="inlineStr"/>
-      <c r="E138" t="n">
-        <v>1.8</v>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>1.8</t>
+        </is>
       </c>
       <c r="F138" t="inlineStr"/>
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr">
         <is>
-          <t>NA|1P|NA|1.8|NA|NA|NA</t>
+          <t>32|1P|NA|1.8|NA|NA|NA</t>
         </is>
       </c>
     </row>
@@ -3997,22 +4229,28 @@
           <t>JNG DISJUNTOR DIN UNIPOLAR 40A CURVA C</t>
         </is>
       </c>
-      <c r="B139" t="inlineStr"/>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
       <c r="C139" t="inlineStr">
         <is>
           <t>1P</t>
         </is>
       </c>
       <c r="D139" t="inlineStr"/>
-      <c r="E139" t="n">
-        <v>1.8</v>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>1.8</t>
+        </is>
       </c>
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr">
         <is>
-          <t>NA|1P|NA|1.8|NA|NA|NA</t>
+          <t>40|1P|NA|1.8|NA|NA|NA</t>
         </is>
       </c>
     </row>
@@ -4022,22 +4260,28 @@
           <t>JNG DISJUNTOR DIN UNIPOLAR 50A CURVA C</t>
         </is>
       </c>
-      <c r="B140" t="inlineStr"/>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
       <c r="C140" t="inlineStr">
         <is>
           <t>1P</t>
         </is>
       </c>
       <c r="D140" t="inlineStr"/>
-      <c r="E140" t="n">
-        <v>1.8</v>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>1.8</t>
+        </is>
       </c>
       <c r="F140" t="inlineStr"/>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr">
         <is>
-          <t>NA|1P|NA|1.8|NA|NA|NA</t>
+          <t>50|1P|NA|1.8|NA|NA|NA</t>
         </is>
       </c>
     </row>
@@ -4047,22 +4291,28 @@
           <t>JNG DISJUNTOR DIN UNIPOLAR 63A CURVA C</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr"/>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
       <c r="C141" t="inlineStr">
         <is>
           <t>1P</t>
         </is>
       </c>
       <c r="D141" t="inlineStr"/>
-      <c r="E141" t="n">
-        <v>2.1</v>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>2.1</t>
+        </is>
       </c>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr">
         <is>
-          <t>NA|1P|NA|2.1|NA|NA|NA</t>
+          <t>63|1P|NA|2.1|NA|NA|NA</t>
         </is>
       </c>
     </row>
@@ -4079,8 +4329,10 @@
         </is>
       </c>
       <c r="D142" t="inlineStr"/>
-      <c r="E142" t="n">
-        <v>3.5</v>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
       </c>
       <c r="F142" t="inlineStr"/>
       <c r="G142" t="inlineStr"/>
@@ -4097,22 +4349,28 @@
           <t>JNG DISJUNTOR DIN BIPOLAR 32A CURVA C</t>
         </is>
       </c>
-      <c r="B143" t="inlineStr"/>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
       <c r="C143" t="inlineStr">
         <is>
           <t>2P</t>
         </is>
       </c>
       <c r="D143" t="inlineStr"/>
-      <c r="E143" t="n">
-        <v>3.5</v>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
       </c>
       <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr">
         <is>
-          <t>NA|2P|NA|3.5|NA|NA|NA</t>
+          <t>32|2P|NA|3.5|NA|NA|NA</t>
         </is>
       </c>
     </row>
@@ -4122,22 +4380,28 @@
           <t>JNG DISJUNTOR DIN BIPOLAR 40A CURVA C</t>
         </is>
       </c>
-      <c r="B144" t="inlineStr"/>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
       <c r="C144" t="inlineStr">
         <is>
           <t>2P</t>
         </is>
       </c>
       <c r="D144" t="inlineStr"/>
-      <c r="E144" t="n">
-        <v>3.5</v>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
       </c>
       <c r="F144" t="inlineStr"/>
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr">
         <is>
-          <t>NA|2P|NA|3.5|NA|NA|NA</t>
+          <t>40|2P|NA|3.5|NA|NA|NA</t>
         </is>
       </c>
     </row>
@@ -4147,22 +4411,28 @@
           <t>JNG DISJUNTOR DIN BIPOLAR 50A CURVA C</t>
         </is>
       </c>
-      <c r="B145" t="inlineStr"/>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
       <c r="C145" t="inlineStr">
         <is>
           <t>2P</t>
         </is>
       </c>
       <c r="D145" t="inlineStr"/>
-      <c r="E145" t="n">
-        <v>3.5</v>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
       </c>
       <c r="F145" t="inlineStr"/>
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr">
         <is>
-          <t>NA|2P|NA|3.5|NA|NA|NA</t>
+          <t>50|2P|NA|3.5|NA|NA|NA</t>
         </is>
       </c>
     </row>
@@ -4172,22 +4442,28 @@
           <t>JNG DISJUNTOR DIN BIPOLAR 63A CURVA C</t>
         </is>
       </c>
-      <c r="B146" t="inlineStr"/>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
       <c r="C146" t="inlineStr">
         <is>
           <t>2P</t>
         </is>
       </c>
       <c r="D146" t="inlineStr"/>
-      <c r="E146" t="n">
-        <v>3.5</v>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
       </c>
       <c r="F146" t="inlineStr"/>
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr">
         <is>
-          <t>NA|2P|NA|3.5|NA|NA|NA</t>
+          <t>63|2P|NA|3.5|NA|NA|NA</t>
         </is>
       </c>
     </row>
@@ -4197,15 +4473,21 @@
           <t>JNG BARRAMENTO DIN 2P 63A 12 POLOS</t>
         </is>
       </c>
-      <c r="B147" t="inlineStr"/>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
       <c r="C147" t="inlineStr">
         <is>
           <t>2P</t>
         </is>
       </c>
       <c r="D147" t="inlineStr"/>
-      <c r="E147" t="n">
-        <v>2.2</v>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>2.2</t>
+        </is>
       </c>
       <c r="F147" t="inlineStr"/>
       <c r="G147" t="inlineStr">
@@ -4216,7 +4498,7 @@
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr">
         <is>
-          <t>NA|2P|NA|2.2|NA|12|NA</t>
+          <t>63|2P|NA|2.2|NA|12|NA</t>
         </is>
       </c>
     </row>
@@ -4233,15 +4515,17 @@
           <t>25mm</t>
         </is>
       </c>
-      <c r="E148" t="n">
-        <v>2</v>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F148" t="inlineStr"/>
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr">
         <is>
-          <t>NA|NA|25mm|2.0|NA|NA|NA</t>
+          <t>NA|NA|25mm|2|NA|NA|NA</t>
         </is>
       </c>
     </row>
@@ -4285,8 +4569,10 @@
       <c r="B150" t="inlineStr"/>
       <c r="C150" t="inlineStr"/>
       <c r="D150" t="inlineStr"/>
-      <c r="E150" t="n">
-        <v>14</v>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
       </c>
       <c r="F150" t="inlineStr"/>
       <c r="G150" t="inlineStr"/>
@@ -4297,7 +4583,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>NA|NA|NA|14.0|NA|NA|BRANCO</t>
+          <t>NA|NA|NA|14|NA|NA|BRANCO</t>
         </is>
       </c>
     </row>
@@ -4310,8 +4596,10 @@
       <c r="B151" t="inlineStr"/>
       <c r="C151" t="inlineStr"/>
       <c r="D151" t="inlineStr"/>
-      <c r="E151" t="n">
-        <v>14</v>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
       </c>
       <c r="F151" t="inlineStr"/>
       <c r="G151" t="inlineStr"/>
@@ -4322,7 +4610,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>NA|NA|NA|14.0|NA|NA|PRETO</t>
+          <t>NA|NA|NA|14|NA|NA|PRETO</t>
         </is>
       </c>
     </row>
@@ -4492,15 +4780,17 @@
       <c r="B159" t="inlineStr"/>
       <c r="C159" t="inlineStr"/>
       <c r="D159" t="inlineStr"/>
-      <c r="E159" t="n">
-        <v>12</v>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="F159" t="inlineStr"/>
       <c r="G159" t="inlineStr"/>
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr">
         <is>
-          <t>NA|NA|NA|12.0|NA|NA|NA</t>
+          <t>NA|NA|NA|12|NA|NA|NA</t>
         </is>
       </c>
     </row>
@@ -4513,15 +4803,17 @@
       <c r="B160" t="inlineStr"/>
       <c r="C160" t="inlineStr"/>
       <c r="D160" t="inlineStr"/>
-      <c r="E160" t="n">
-        <v>17</v>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
       </c>
       <c r="F160" t="inlineStr"/>
       <c r="G160" t="inlineStr"/>
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr">
         <is>
-          <t>NA|NA|NA|17.0|NA|NA|NA</t>
+          <t>NA|NA|NA|17|NA|NA|NA</t>
         </is>
       </c>
     </row>
@@ -4534,15 +4826,17 @@
       <c r="B161" t="inlineStr"/>
       <c r="C161" t="inlineStr"/>
       <c r="D161" t="inlineStr"/>
-      <c r="E161" t="n">
-        <v>19</v>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
       </c>
       <c r="F161" t="inlineStr"/>
       <c r="G161" t="inlineStr"/>
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr">
         <is>
-          <t>NA|NA|NA|19.0|NA|NA|NA</t>
+          <t>NA|NA|NA|19|NA|NA|NA</t>
         </is>
       </c>
     </row>
@@ -4555,15 +4849,17 @@
       <c r="B162" t="inlineStr"/>
       <c r="C162" t="inlineStr"/>
       <c r="D162" t="inlineStr"/>
-      <c r="E162" t="n">
-        <v>24</v>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
       </c>
       <c r="F162" t="inlineStr"/>
       <c r="G162" t="inlineStr"/>
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr">
         <is>
-          <t>NA|NA|NA|24.0|NA|NA|NA</t>
+          <t>NA|NA|NA|24|NA|NA|NA</t>
         </is>
       </c>
     </row>
@@ -4576,15 +4872,17 @@
       <c r="B163" t="inlineStr"/>
       <c r="C163" t="inlineStr"/>
       <c r="D163" t="inlineStr"/>
-      <c r="E163" t="n">
-        <v>7</v>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="F163" t="inlineStr"/>
       <c r="G163" t="inlineStr"/>
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr">
         <is>
-          <t>NA|NA|NA|7.0|NA|NA|NA</t>
+          <t>NA|NA|NA|7|NA|NA|NA</t>
         </is>
       </c>
     </row>
@@ -4597,15 +4895,17 @@
       <c r="B164" t="inlineStr"/>
       <c r="C164" t="inlineStr"/>
       <c r="D164" t="inlineStr"/>
-      <c r="E164" t="n">
-        <v>5</v>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="F164" t="inlineStr"/>
       <c r="G164" t="inlineStr"/>
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr">
         <is>
-          <t>NA|NA|NA|5.0|NA|NA|NA</t>
+          <t>NA|NA|NA|5|NA|NA|NA</t>
         </is>
       </c>
     </row>
@@ -4618,8 +4918,10 @@
       <c r="B165" t="inlineStr"/>
       <c r="C165" t="inlineStr"/>
       <c r="D165" t="inlineStr"/>
-      <c r="E165" t="n">
-        <v>12.5</v>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>12.5</t>
+        </is>
       </c>
       <c r="F165" t="inlineStr"/>
       <c r="G165" t="inlineStr"/>
@@ -4639,15 +4941,17 @@
       <c r="B166" t="inlineStr"/>
       <c r="C166" t="inlineStr"/>
       <c r="D166" t="inlineStr"/>
-      <c r="E166" t="n">
-        <v>6</v>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="F166" t="inlineStr"/>
       <c r="G166" t="inlineStr"/>
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr">
         <is>
-          <t>NA|NA|NA|6.0|NA|NA|NA</t>
+          <t>NA|NA|NA|6|NA|NA|NA</t>
         </is>
       </c>
     </row>
@@ -4660,15 +4964,17 @@
       <c r="B167" t="inlineStr"/>
       <c r="C167" t="inlineStr"/>
       <c r="D167" t="inlineStr"/>
-      <c r="E167" t="n">
-        <v>6</v>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="F167" t="inlineStr"/>
       <c r="G167" t="inlineStr"/>
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr">
         <is>
-          <t>NA|NA|NA|6.0|NA|NA|NA</t>
+          <t>NA|NA|NA|6|NA|NA|NA</t>
         </is>
       </c>
     </row>
@@ -4682,18 +4988,20 @@
       <c r="C168" t="inlineStr"/>
       <c r="D168" t="inlineStr">
         <is>
-          <t>100x127mm</t>
-        </is>
-      </c>
-      <c r="E168" t="n">
-        <v>5</v>
+          <t>100x127</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="F168" t="inlineStr"/>
       <c r="G168" t="inlineStr"/>
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr">
         <is>
-          <t>NA|NA|100x127mm|5.0|NA|NA|NA</t>
+          <t>NA|NA|100x127|5|NA|NA|NA</t>
         </is>
       </c>
     </row>
@@ -4707,11 +5015,13 @@
       <c r="C169" t="inlineStr"/>
       <c r="D169" t="inlineStr">
         <is>
-          <t>2x0.75mm</t>
-        </is>
-      </c>
-      <c r="E169" t="n">
-        <v>24</v>
+          <t>2x0.75</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
       </c>
       <c r="F169" t="inlineStr"/>
       <c r="G169" t="inlineStr"/>
@@ -4722,7 +5032,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>NA|NA|2x0.75mm|24.0|NA|NA|TRANSPARENTE</t>
+          <t>NA|NA|2x0.75|24|NA|NA|TRANSPARENTE</t>
         </is>
       </c>
     </row>
@@ -4736,18 +5046,20 @@
       <c r="C170" t="inlineStr"/>
       <c r="D170" t="inlineStr">
         <is>
-          <t>2x0.75mm</t>
-        </is>
-      </c>
-      <c r="E170" t="n">
-        <v>22</v>
+          <t>2x0.75</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="F170" t="inlineStr"/>
       <c r="G170" t="inlineStr"/>
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr">
         <is>
-          <t>NA|NA|2x0.75mm|22.0|NA|NA|NA</t>
+          <t>NA|NA|2x0.75|22|NA|NA|NA</t>
         </is>
       </c>
     </row>
@@ -4760,15 +5072,17 @@
       <c r="B171" t="inlineStr"/>
       <c r="C171" t="inlineStr"/>
       <c r="D171" t="inlineStr"/>
-      <c r="E171" t="n">
-        <v>6</v>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="F171" t="inlineStr"/>
       <c r="G171" t="inlineStr"/>
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr">
         <is>
-          <t>NA|NA|NA|6.0|NA|NA|NA</t>
+          <t>NA|NA|NA|6|NA|NA|NA</t>
         </is>
       </c>
     </row>
@@ -4781,8 +5095,10 @@
       <c r="B172" t="inlineStr"/>
       <c r="C172" t="inlineStr"/>
       <c r="D172" t="inlineStr"/>
-      <c r="E172" t="n">
-        <v>14.5</v>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>14.5</t>
+        </is>
       </c>
       <c r="F172" t="inlineStr"/>
       <c r="G172" t="inlineStr"/>
@@ -4806,15 +5122,17 @@
       <c r="B173" t="inlineStr"/>
       <c r="C173" t="inlineStr"/>
       <c r="D173" t="inlineStr"/>
-      <c r="E173" t="n">
-        <v>12</v>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="F173" t="inlineStr"/>
       <c r="G173" t="inlineStr"/>
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr">
         <is>
-          <t>NA|NA|NA|12.0|NA|NA|NA</t>
+          <t>NA|NA|NA|12|NA|NA|NA</t>
         </is>
       </c>
     </row>
@@ -4827,15 +5145,17 @@
       <c r="B174" t="inlineStr"/>
       <c r="C174" t="inlineStr"/>
       <c r="D174" t="inlineStr"/>
-      <c r="E174" t="n">
-        <v>8</v>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="F174" t="inlineStr"/>
       <c r="G174" t="inlineStr"/>
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr">
         <is>
-          <t>NA|NA|NA|8.0|NA|NA|NA</t>
+          <t>NA|NA|NA|8|NA|NA|NA</t>
         </is>
       </c>
     </row>
@@ -4852,15 +5172,17 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="E175" t="n">
-        <v>8</v>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="F175" t="inlineStr"/>
       <c r="G175" t="inlineStr"/>
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr">
         <is>
-          <t>NA|NA|1"|8.0|NA|NA|NA</t>
+          <t>NA|NA|1"|8|NA|NA|NA</t>
         </is>
       </c>
     </row>
@@ -4873,8 +5195,10 @@
       <c r="B176" t="inlineStr"/>
       <c r="C176" t="inlineStr"/>
       <c r="D176" t="inlineStr"/>
-      <c r="E176" t="n">
-        <v>3.5</v>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
       </c>
       <c r="F176" t="inlineStr"/>
       <c r="G176" t="inlineStr">
@@ -4898,8 +5222,10 @@
       <c r="B177" t="inlineStr"/>
       <c r="C177" t="inlineStr"/>
       <c r="D177" t="inlineStr"/>
-      <c r="E177" t="n">
-        <v>16.5</v>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>16.5</t>
+        </is>
       </c>
       <c r="F177" t="inlineStr"/>
       <c r="G177" t="inlineStr"/>
@@ -4923,8 +5249,10 @@
       <c r="B178" t="inlineStr"/>
       <c r="C178" t="inlineStr"/>
       <c r="D178" t="inlineStr"/>
-      <c r="E178" t="n">
-        <v>15</v>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
       </c>
       <c r="F178" t="inlineStr"/>
       <c r="G178" t="inlineStr"/>
@@ -4935,7 +5263,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>NA|NA|NA|15.0|NA|NA|BRANCO</t>
+          <t>NA|NA|NA|15|NA|NA|BRANCO</t>
         </is>
       </c>
     </row>
@@ -4967,8 +5295,10 @@
       <c r="B180" t="inlineStr"/>
       <c r="C180" t="inlineStr"/>
       <c r="D180" t="inlineStr"/>
-      <c r="E180" t="n">
-        <v>33</v>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
       </c>
       <c r="F180" t="inlineStr"/>
       <c r="G180" t="inlineStr"/>
@@ -4979,7 +5309,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>NA|NA|NA|33.0|NA|NA|PRETO</t>
+          <t>NA|NA|NA|33|NA|NA|PRETO</t>
         </is>
       </c>
     </row>
@@ -4992,8 +5322,10 @@
       <c r="B181" t="inlineStr"/>
       <c r="C181" t="inlineStr"/>
       <c r="D181" t="inlineStr"/>
-      <c r="E181" t="n">
-        <v>33</v>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
       </c>
       <c r="F181" t="inlineStr"/>
       <c r="G181" t="inlineStr"/>
@@ -5004,7 +5336,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>NA|NA|NA|33.0|NA|NA|AMARELO</t>
+          <t>NA|NA|NA|33|NA|NA|AMARELO</t>
         </is>
       </c>
     </row>
@@ -5075,8 +5407,10 @@
       <c r="B184" t="inlineStr"/>
       <c r="C184" t="inlineStr"/>
       <c r="D184" t="inlineStr"/>
-      <c r="E184" t="n">
-        <v>17</v>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
       </c>
       <c r="F184" t="inlineStr"/>
       <c r="G184" t="inlineStr"/>
@@ -5087,7 +5421,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>NA|NA|NA|17.0|NA|NA|BRANCO</t>
+          <t>NA|NA|NA|17|NA|NA|BRANCO</t>
         </is>
       </c>
     </row>
@@ -5100,8 +5434,10 @@
       <c r="B185" t="inlineStr"/>
       <c r="C185" t="inlineStr"/>
       <c r="D185" t="inlineStr"/>
-      <c r="E185" t="n">
-        <v>17</v>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
       </c>
       <c r="F185" t="inlineStr"/>
       <c r="G185" t="inlineStr"/>
@@ -5112,7 +5448,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>NA|NA|NA|17.0|NA|NA|BRANCO</t>
+          <t>NA|NA|NA|17|NA|NA|BRANCO</t>
         </is>
       </c>
     </row>
@@ -5260,15 +5596,17 @@
       <c r="B191" t="inlineStr"/>
       <c r="C191" t="inlineStr"/>
       <c r="D191" t="inlineStr"/>
-      <c r="E191" t="n">
-        <v>18</v>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
       </c>
       <c r="F191" t="inlineStr"/>
       <c r="G191" t="inlineStr"/>
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr">
         <is>
-          <t>NA|NA|NA|18.0|NA|NA|NA</t>
+          <t>NA|NA|NA|18|NA|NA|NA</t>
         </is>
       </c>
     </row>
@@ -5281,15 +5619,17 @@
       <c r="B192" t="inlineStr"/>
       <c r="C192" t="inlineStr"/>
       <c r="D192" t="inlineStr"/>
-      <c r="E192" t="n">
-        <v>18</v>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
       </c>
       <c r="F192" t="inlineStr"/>
       <c r="G192" t="inlineStr"/>
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr">
         <is>
-          <t>NA|NA|NA|18.0|NA|NA|NA</t>
+          <t>NA|NA|NA|18|NA|NA|NA</t>
         </is>
       </c>
     </row>
@@ -5302,15 +5642,17 @@
       <c r="B193" t="inlineStr"/>
       <c r="C193" t="inlineStr"/>
       <c r="D193" t="inlineStr"/>
-      <c r="E193" t="n">
-        <v>18</v>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
       </c>
       <c r="F193" t="inlineStr"/>
       <c r="G193" t="inlineStr"/>
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr">
         <is>
-          <t>NA|NA|NA|18.0|NA|NA|NA</t>
+          <t>NA|NA|NA|18|NA|NA|NA</t>
         </is>
       </c>
     </row>
@@ -5323,15 +5665,17 @@
       <c r="B194" t="inlineStr"/>
       <c r="C194" t="inlineStr"/>
       <c r="D194" t="inlineStr"/>
-      <c r="E194" t="n">
-        <v>22</v>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="F194" t="inlineStr"/>
       <c r="G194" t="inlineStr"/>
       <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr">
         <is>
-          <t>NA|NA|NA|22.0|NA|NA|NA</t>
+          <t>NA|NA|NA|22|NA|NA|NA</t>
         </is>
       </c>
     </row>
@@ -5341,22 +5685,28 @@
           <t>LUKMA DISJUNTOR DIN BIPOLAR 10A CURVA C</t>
         </is>
       </c>
-      <c r="B195" t="inlineStr"/>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="C195" t="inlineStr">
         <is>
           <t>2P</t>
         </is>
       </c>
       <c r="D195" t="inlineStr"/>
-      <c r="E195" t="n">
-        <v>25</v>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
       </c>
       <c r="F195" t="inlineStr"/>
       <c r="G195" t="inlineStr"/>
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr">
         <is>
-          <t>NA|2P|NA|25.0|NA|NA|NA</t>
+          <t>10|2P|NA|25|NA|NA|NA</t>
         </is>
       </c>
     </row>
@@ -5366,22 +5716,28 @@
           <t>LUKMA DISJUNTOR DIN BIPOLAR 32A CURVA C</t>
         </is>
       </c>
-      <c r="B196" t="inlineStr"/>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
       <c r="C196" t="inlineStr">
         <is>
           <t>2P</t>
         </is>
       </c>
       <c r="D196" t="inlineStr"/>
-      <c r="E196" t="n">
-        <v>25</v>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
       </c>
       <c r="F196" t="inlineStr"/>
       <c r="G196" t="inlineStr"/>
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr">
         <is>
-          <t>NA|2P|NA|25.0|NA|NA|NA</t>
+          <t>32|2P|NA|25|NA|NA|NA</t>
         </is>
       </c>
     </row>
@@ -5391,22 +5747,28 @@
           <t>LUKMA DISJUNTOR DIN BIPOLAR 40A CURVA C</t>
         </is>
       </c>
-      <c r="B197" t="inlineStr"/>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
       <c r="C197" t="inlineStr">
         <is>
           <t>2P</t>
         </is>
       </c>
       <c r="D197" t="inlineStr"/>
-      <c r="E197" t="n">
-        <v>3.5</v>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
       </c>
       <c r="F197" t="inlineStr"/>
       <c r="G197" t="inlineStr"/>
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr">
         <is>
-          <t>NA|2P|NA|3.5|NA|NA|NA</t>
+          <t>40|2P|NA|3.5|NA|NA|NA</t>
         </is>
       </c>
     </row>
@@ -5416,22 +5778,28 @@
           <t>LUKMA DISJUNTOR DIN BIPOLAR 63A CURVA C</t>
         </is>
       </c>
-      <c r="B198" t="inlineStr"/>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
       <c r="C198" t="inlineStr">
         <is>
           <t>2P</t>
         </is>
       </c>
       <c r="D198" t="inlineStr"/>
-      <c r="E198" t="n">
-        <v>4</v>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="F198" t="inlineStr"/>
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr">
         <is>
-          <t>NA|2P|NA|4.0|NA|NA|NA</t>
+          <t>63|2P|NA|4|NA|NA|NA</t>
         </is>
       </c>
     </row>
@@ -5460,7 +5828,11 @@
           <t>CONECTOR WAGO 2P 0,14A4,0M 32A COM6</t>
         </is>
       </c>
-      <c r="B200" t="inlineStr"/>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
       <c r="C200" t="inlineStr">
         <is>
           <t>2P</t>
@@ -5473,7 +5845,7 @@
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr">
         <is>
-          <t>NA|2P|NA|NA|NA|NA|NA</t>
+          <t>32|2P|NA|NA|NA|NA|NA</t>
         </is>
       </c>
     </row>
@@ -5483,7 +5855,11 @@
           <t>CONECTOR WAGO 3P 0,14A4,0M 32A COM4</t>
         </is>
       </c>
-      <c r="B201" t="inlineStr"/>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
       <c r="C201" t="inlineStr">
         <is>
           <t>3P</t>
@@ -5496,7 +5872,7 @@
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr">
         <is>
-          <t>NA|3P|NA|NA|NA|NA|NA</t>
+          <t>32|3P|NA|NA|NA|NA|NA</t>
         </is>
       </c>
     </row>
@@ -5659,8 +6035,10 @@
       <c r="B208" t="inlineStr"/>
       <c r="C208" t="inlineStr"/>
       <c r="D208" t="inlineStr"/>
-      <c r="E208" t="n">
-        <v>2.5</v>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
       </c>
       <c r="F208" t="inlineStr"/>
       <c r="G208" t="inlineStr">
@@ -5684,8 +6062,10 @@
       <c r="B209" t="inlineStr"/>
       <c r="C209" t="inlineStr"/>
       <c r="D209" t="inlineStr"/>
-      <c r="E209" t="n">
-        <v>2.5</v>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
       </c>
       <c r="F209" t="inlineStr"/>
       <c r="G209" t="inlineStr">
@@ -5709,8 +6089,10 @@
       <c r="B210" t="inlineStr"/>
       <c r="C210" t="inlineStr"/>
       <c r="D210" t="inlineStr"/>
-      <c r="E210" t="n">
-        <v>0.5</v>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
       </c>
       <c r="F210" t="inlineStr"/>
       <c r="G210" t="inlineStr"/>
@@ -5730,8 +6112,10 @@
       <c r="B211" t="inlineStr"/>
       <c r="C211" t="inlineStr"/>
       <c r="D211" t="inlineStr"/>
-      <c r="E211" t="n">
-        <v>0.5</v>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
       </c>
       <c r="F211" t="inlineStr"/>
       <c r="G211" t="inlineStr"/>
@@ -5751,8 +6135,10 @@
       <c r="B212" t="inlineStr"/>
       <c r="C212" t="inlineStr"/>
       <c r="D212" t="inlineStr"/>
-      <c r="E212" t="n">
-        <v>0.5</v>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
       </c>
       <c r="F212" t="inlineStr"/>
       <c r="G212" t="inlineStr">
@@ -5776,8 +6162,10 @@
       <c r="B213" t="inlineStr"/>
       <c r="C213" t="inlineStr"/>
       <c r="D213" t="inlineStr"/>
-      <c r="E213" t="n">
-        <v>0.5</v>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
       </c>
       <c r="F213" t="inlineStr"/>
       <c r="G213" t="inlineStr"/>
@@ -5797,8 +6185,10 @@
       <c r="B214" t="inlineStr"/>
       <c r="C214" t="inlineStr"/>
       <c r="D214" t="inlineStr"/>
-      <c r="E214" t="n">
-        <v>0.5</v>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
       </c>
       <c r="F214" t="inlineStr"/>
       <c r="G214" t="inlineStr"/>
@@ -5818,8 +6208,10 @@
       <c r="B215" t="inlineStr"/>
       <c r="C215" t="inlineStr"/>
       <c r="D215" t="inlineStr"/>
-      <c r="E215" t="n">
-        <v>0.5</v>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
       </c>
       <c r="F215" t="inlineStr"/>
       <c r="G215" t="inlineStr"/>
@@ -5840,11 +6232,13 @@
       <c r="C216" t="inlineStr"/>
       <c r="D216" t="inlineStr">
         <is>
-          <t>4x5mm</t>
-        </is>
-      </c>
-      <c r="E216" t="n">
-        <v>2</v>
+          <t>4x5</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="F216" t="inlineStr"/>
       <c r="G216" t="inlineStr">
@@ -5855,7 +6249,7 @@
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr">
         <is>
-          <t>NA|NA|4x5mm|2.0|NA|08|NA</t>
+          <t>NA|NA|4x5|2|NA|08|NA</t>
         </is>
       </c>
     </row>
@@ -5872,8 +6266,10 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="E217" t="n">
-        <v>23</v>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
       </c>
       <c r="F217" t="inlineStr"/>
       <c r="G217" t="inlineStr"/>
@@ -5884,7 +6280,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>NA|NA|1"|23.0|NA|NA|PRETO</t>
+          <t>NA|NA|1"|23|NA|NA|PRETO</t>
         </is>
       </c>
     </row>
@@ -5901,8 +6297,10 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="E218" t="n">
-        <v>23</v>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
       </c>
       <c r="F218" t="inlineStr"/>
       <c r="G218" t="inlineStr"/>
@@ -5913,7 +6311,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>NA|NA|1"|23.0|NA|NA|VERMELHO</t>
+          <t>NA|NA|1"|23|NA|NA|VERMELHO</t>
         </is>
       </c>
     </row>
@@ -6000,7 +6398,7 @@
       <c r="C222" t="inlineStr"/>
       <c r="D222" t="inlineStr">
         <is>
-          <t>2x20mm</t>
+          <t>2x20</t>
         </is>
       </c>
       <c r="E222" t="inlineStr"/>
@@ -6013,7 +6411,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>NA|NA|2x20mm|NA|NA|NA|BRANCO</t>
+          <t>NA|NA|2x20|NA|NA|NA|BRANCO</t>
         </is>
       </c>
     </row>
@@ -6160,18 +6558,20 @@
       <c r="C230" t="inlineStr"/>
       <c r="D230" t="inlineStr">
         <is>
-          <t>2x1.5mm</t>
-        </is>
-      </c>
-      <c r="E230" t="n">
-        <v>36</v>
+          <t>2x1.5</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
       </c>
       <c r="F230" t="inlineStr"/>
       <c r="G230" t="inlineStr"/>
       <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr">
         <is>
-          <t>NA|NA|2x1.5mm|36.0|NA|NA|NA</t>
+          <t>NA|NA|2x1.5|36|NA|NA|NA</t>
         </is>
       </c>
     </row>
@@ -6184,8 +6584,10 @@
       <c r="B231" t="inlineStr"/>
       <c r="C231" t="inlineStr"/>
       <c r="D231" t="inlineStr"/>
-      <c r="E231" t="n">
-        <v>9.5</v>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>9.5</t>
+        </is>
       </c>
       <c r="F231" t="inlineStr"/>
       <c r="G231" t="inlineStr">
@@ -6209,8 +6611,10 @@
       <c r="B232" t="inlineStr"/>
       <c r="C232" t="inlineStr"/>
       <c r="D232" t="inlineStr"/>
-      <c r="E232" t="n">
-        <v>9.5</v>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>9.5</t>
+        </is>
       </c>
       <c r="F232" t="inlineStr"/>
       <c r="G232" t="inlineStr">
@@ -6234,8 +6638,10 @@
       <c r="B233" t="inlineStr"/>
       <c r="C233" t="inlineStr"/>
       <c r="D233" t="inlineStr"/>
-      <c r="E233" t="n">
-        <v>9.5</v>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>9.5</t>
+        </is>
       </c>
       <c r="F233" t="inlineStr"/>
       <c r="G233" t="inlineStr">
@@ -6259,15 +6665,17 @@
       <c r="B234" t="inlineStr"/>
       <c r="C234" t="inlineStr"/>
       <c r="D234" t="inlineStr"/>
-      <c r="E234" t="n">
-        <v>3</v>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="F234" t="inlineStr"/>
       <c r="G234" t="inlineStr"/>
       <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr">
         <is>
-          <t>NA|NA|NA|3.0|NA|NA|NA</t>
+          <t>NA|NA|NA|3|NA|NA|NA</t>
         </is>
       </c>
     </row>
@@ -6280,15 +6688,17 @@
       <c r="B235" t="inlineStr"/>
       <c r="C235" t="inlineStr"/>
       <c r="D235" t="inlineStr"/>
-      <c r="E235" t="n">
-        <v>6</v>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="F235" t="inlineStr"/>
       <c r="G235" t="inlineStr"/>
       <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr">
         <is>
-          <t>NA|NA|NA|6.0|NA|NA|NA</t>
+          <t>NA|NA|NA|6|NA|NA|NA</t>
         </is>
       </c>
     </row>
@@ -6301,15 +6711,17 @@
       <c r="B236" t="inlineStr"/>
       <c r="C236" t="inlineStr"/>
       <c r="D236" t="inlineStr"/>
-      <c r="E236" t="n">
-        <v>6</v>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="F236" t="inlineStr"/>
       <c r="G236" t="inlineStr"/>
       <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr">
         <is>
-          <t>NA|NA|NA|6.0|NA|NA|NA</t>
+          <t>NA|NA|NA|6|NA|NA|NA</t>
         </is>
       </c>
     </row>
@@ -6322,15 +6734,17 @@
       <c r="B237" t="inlineStr"/>
       <c r="C237" t="inlineStr"/>
       <c r="D237" t="inlineStr"/>
-      <c r="E237" t="n">
-        <v>10</v>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="F237" t="inlineStr"/>
       <c r="G237" t="inlineStr"/>
       <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr">
         <is>
-          <t>NA|NA|NA|10.0|NA|NA|NA</t>
+          <t>NA|NA|NA|10|NA|NA|NA</t>
         </is>
       </c>
     </row>
@@ -6343,15 +6757,17 @@
       <c r="B238" t="inlineStr"/>
       <c r="C238" t="inlineStr"/>
       <c r="D238" t="inlineStr"/>
-      <c r="E238" t="n">
-        <v>6</v>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="F238" t="inlineStr"/>
       <c r="G238" t="inlineStr"/>
       <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr">
         <is>
-          <t>NA|NA|NA|6.0|NA|NA|NA</t>
+          <t>NA|NA|NA|6|NA|NA|NA</t>
         </is>
       </c>
     </row>
@@ -6364,15 +6780,17 @@
       <c r="B239" t="inlineStr"/>
       <c r="C239" t="inlineStr"/>
       <c r="D239" t="inlineStr"/>
-      <c r="E239" t="n">
-        <v>5</v>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="F239" t="inlineStr"/>
       <c r="G239" t="inlineStr"/>
       <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr">
         <is>
-          <t>NA|NA|NA|5.0|NA|NA|NA</t>
+          <t>NA|NA|NA|5|NA|NA|NA</t>
         </is>
       </c>
     </row>
@@ -6389,8 +6807,10 @@
         </is>
       </c>
       <c r="D240" t="inlineStr"/>
-      <c r="E240" t="n">
-        <v>25</v>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
       </c>
       <c r="F240" t="inlineStr"/>
       <c r="G240" t="inlineStr">
@@ -6401,7 +6821,7 @@
       <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr">
         <is>
-          <t>NA|2P|NA|25.0|NA|12|NA</t>
+          <t>NA|2P|NA|25|NA|12|NA</t>
         </is>
       </c>
     </row>
@@ -6563,8 +6983,10 @@
       <c r="B248" t="inlineStr"/>
       <c r="C248" t="inlineStr"/>
       <c r="D248" t="inlineStr"/>
-      <c r="E248" t="n">
-        <v>4.5</v>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
       </c>
       <c r="F248" t="inlineStr"/>
       <c r="G248" t="inlineStr"/>
@@ -6588,15 +7010,17 @@
       <c r="B249" t="inlineStr"/>
       <c r="C249" t="inlineStr"/>
       <c r="D249" t="inlineStr"/>
-      <c r="E249" t="n">
-        <v>5</v>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="F249" t="inlineStr"/>
       <c r="G249" t="inlineStr"/>
       <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr">
         <is>
-          <t>NA|NA|NA|5.0|NA|NA|NA</t>
+          <t>NA|NA|NA|5|NA|NA|NA</t>
         </is>
       </c>
     </row>
@@ -6609,8 +7033,10 @@
       <c r="B250" t="inlineStr"/>
       <c r="C250" t="inlineStr"/>
       <c r="D250" t="inlineStr"/>
-      <c r="E250" t="n">
-        <v>5</v>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="F250" t="inlineStr"/>
       <c r="G250" t="inlineStr"/>
@@ -6621,7 +7047,7 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>NA|NA|NA|5.0|NA|NA|VERMELHO</t>
+          <t>NA|NA|NA|5|NA|NA|VERMELHO</t>
         </is>
       </c>
     </row>
@@ -6635,18 +7061,20 @@
       <c r="C251" t="inlineStr"/>
       <c r="D251" t="inlineStr">
         <is>
-          <t>70x127mm</t>
-        </is>
-      </c>
-      <c r="E251" t="n">
-        <v>6</v>
+          <t>70x127</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="F251" t="inlineStr"/>
       <c r="G251" t="inlineStr"/>
       <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr">
         <is>
-          <t>NA|NA|70x127mm|6.0|NA|NA|NA</t>
+          <t>NA|NA|70x127|6|NA|NA|NA</t>
         </is>
       </c>
     </row>
@@ -6663,8 +7091,10 @@
           <t>3/4"</t>
         </is>
       </c>
-      <c r="E252" t="n">
-        <v>1.9</v>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>1.9</t>
+        </is>
       </c>
       <c r="F252" t="inlineStr"/>
       <c r="G252" t="inlineStr">
@@ -6783,8 +7213,10 @@
       <c r="B258" t="inlineStr"/>
       <c r="C258" t="inlineStr"/>
       <c r="D258" t="inlineStr"/>
-      <c r="E258" t="n">
-        <v>7.5</v>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
       </c>
       <c r="F258" t="inlineStr"/>
       <c r="G258" t="inlineStr"/>
@@ -6804,15 +7236,17 @@
       <c r="B259" t="inlineStr"/>
       <c r="C259" t="inlineStr"/>
       <c r="D259" t="inlineStr"/>
-      <c r="E259" t="n">
-        <v>8</v>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="F259" t="inlineStr"/>
       <c r="G259" t="inlineStr"/>
       <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr">
         <is>
-          <t>NA|NA|NA|8.0|NA|NA|NA</t>
+          <t>NA|NA|NA|8|NA|NA|NA</t>
         </is>
       </c>
     </row>
@@ -6825,15 +7259,17 @@
       <c r="B260" t="inlineStr"/>
       <c r="C260" t="inlineStr"/>
       <c r="D260" t="inlineStr"/>
-      <c r="E260" t="n">
-        <v>10</v>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="F260" t="inlineStr"/>
       <c r="G260" t="inlineStr"/>
       <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr">
         <is>
-          <t>NA|NA|NA|10.0|NA|NA|NA</t>
+          <t>NA|NA|NA|10|NA|NA|NA</t>
         </is>
       </c>
     </row>
@@ -6846,15 +7282,17 @@
       <c r="B261" t="inlineStr"/>
       <c r="C261" t="inlineStr"/>
       <c r="D261" t="inlineStr"/>
-      <c r="E261" t="n">
-        <v>6</v>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="F261" t="inlineStr"/>
       <c r="G261" t="inlineStr"/>
       <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr">
         <is>
-          <t>NA|NA|NA|6.0|NA|NA|NA</t>
+          <t>NA|NA|NA|6|NA|NA|NA</t>
         </is>
       </c>
     </row>
@@ -6867,15 +7305,17 @@
       <c r="B262" t="inlineStr"/>
       <c r="C262" t="inlineStr"/>
       <c r="D262" t="inlineStr"/>
-      <c r="E262" t="n">
-        <v>6</v>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="F262" t="inlineStr"/>
       <c r="G262" t="inlineStr"/>
       <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr">
         <is>
-          <t>NA|NA|NA|6.0|NA|NA|NA</t>
+          <t>NA|NA|NA|6|NA|NA|NA</t>
         </is>
       </c>
     </row>
@@ -6888,8 +7328,10 @@
       <c r="B263" t="inlineStr"/>
       <c r="C263" t="inlineStr"/>
       <c r="D263" t="inlineStr"/>
-      <c r="E263" t="n">
-        <v>13.5</v>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>13.5</t>
+        </is>
       </c>
       <c r="F263" t="inlineStr"/>
       <c r="G263" t="inlineStr"/>
@@ -6909,15 +7351,17 @@
       <c r="B264" t="inlineStr"/>
       <c r="C264" t="inlineStr"/>
       <c r="D264" t="inlineStr"/>
-      <c r="E264" t="n">
-        <v>6</v>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="F264" t="inlineStr"/>
       <c r="G264" t="inlineStr"/>
       <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr">
         <is>
-          <t>NA|NA|NA|6.0|NA|NA|NA</t>
+          <t>NA|NA|NA|6|NA|NA|NA</t>
         </is>
       </c>
     </row>
@@ -6930,15 +7374,17 @@
       <c r="B265" t="inlineStr"/>
       <c r="C265" t="inlineStr"/>
       <c r="D265" t="inlineStr"/>
-      <c r="E265" t="n">
-        <v>6</v>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="F265" t="inlineStr"/>
       <c r="G265" t="inlineStr"/>
       <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr">
         <is>
-          <t>NA|NA|NA|6.0|NA|NA|NA</t>
+          <t>NA|NA|NA|6|NA|NA|NA</t>
         </is>
       </c>
     </row>
@@ -6952,18 +7398,20 @@
       <c r="C266" t="inlineStr"/>
       <c r="D266" t="inlineStr">
         <is>
-          <t>35x7.5mm</t>
-        </is>
-      </c>
-      <c r="E266" t="n">
-        <v>3.5</v>
+          <t>35x7.5</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
       </c>
       <c r="F266" t="inlineStr"/>
       <c r="G266" t="inlineStr"/>
       <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr">
         <is>
-          <t>NA|NA|35x7.5mm|3.5|NA|NA|NA</t>
+          <t>NA|NA|35x7.5|3.5|NA|NA|NA</t>
         </is>
       </c>
     </row>
@@ -7026,8 +7474,10 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="E269" t="n">
-        <v>23</v>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
       </c>
       <c r="F269" t="inlineStr"/>
       <c r="G269" t="inlineStr"/>
@@ -7038,7 +7488,7 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>NA|NA|1"|23.0|NA|NA|AZUL</t>
+          <t>NA|NA|1"|23|NA|NA|AZUL</t>
         </is>
       </c>
     </row>
@@ -7051,8 +7501,10 @@
       <c r="B270" t="inlineStr"/>
       <c r="C270" t="inlineStr"/>
       <c r="D270" t="inlineStr"/>
-      <c r="E270" t="n">
-        <v>0.5</v>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
       </c>
       <c r="F270" t="inlineStr"/>
       <c r="G270" t="inlineStr">
@@ -7076,8 +7528,10 @@
       <c r="B271" t="inlineStr"/>
       <c r="C271" t="inlineStr"/>
       <c r="D271" t="inlineStr"/>
-      <c r="E271" t="n">
-        <v>7.5</v>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
       </c>
       <c r="F271" t="inlineStr"/>
       <c r="G271" t="inlineStr"/>
@@ -7209,7 +7663,7 @@
       <c r="C277" t="inlineStr"/>
       <c r="D277" t="inlineStr">
         <is>
-          <t>2x1mm</t>
+          <t>11.5mm</t>
         </is>
       </c>
       <c r="E277" t="inlineStr"/>
@@ -7218,7 +7672,7 @@
       <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr">
         <is>
-          <t>NA|NA|2x1mm|NA|NA|NA|NA</t>
+          <t>NA|NA|11.5mm|NA|NA|NA|NA</t>
         </is>
       </c>
     </row>
@@ -7232,7 +7686,7 @@
       <c r="C278" t="inlineStr"/>
       <c r="D278" t="inlineStr">
         <is>
-          <t>2x20mm</t>
+          <t>2x20</t>
         </is>
       </c>
       <c r="E278" t="inlineStr"/>
@@ -7245,7 +7699,7 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>NA|NA|2x20mm|NA|NA|NA|PRETO</t>
+          <t>NA|NA|2x20|NA|NA|NA|PRETO</t>
         </is>
       </c>
     </row>
@@ -7259,7 +7713,7 @@
       <c r="C279" t="inlineStr"/>
       <c r="D279" t="inlineStr">
         <is>
-          <t>2x20mm</t>
+          <t>2x20</t>
         </is>
       </c>
       <c r="E279" t="inlineStr"/>
@@ -7272,7 +7726,7 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>NA|NA|2x20mm|NA|NA|NA|PRETO</t>
+          <t>NA|NA|2x20|NA|NA|NA|PRETO</t>
         </is>
       </c>
     </row>
@@ -7282,7 +7736,11 @@
           <t>DISJUNTOR STECK SERIE SD61 50A 1P CURVA C 3KA</t>
         </is>
       </c>
-      <c r="B280" t="inlineStr"/>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
       <c r="C280" t="inlineStr">
         <is>
           <t>1P</t>
@@ -7295,7 +7753,7 @@
       <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr">
         <is>
-          <t>NA|1P|NA|NA|NA|NA|NA</t>
+          <t>50|1P|NA|NA|NA|NA|NA</t>
         </is>
       </c>
     </row>
@@ -7305,7 +7763,11 @@
           <t>DISJUNTOR STECK SERIE SD61 25A 1P CURVA C 3KA</t>
         </is>
       </c>
-      <c r="B281" t="inlineStr"/>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
       <c r="C281" t="inlineStr">
         <is>
           <t>1P</t>
@@ -7318,7 +7780,7 @@
       <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr">
         <is>
-          <t>NA|1P|NA|NA|NA|NA|NA</t>
+          <t>25|1P|NA|NA|NA|NA|NA</t>
         </is>
       </c>
     </row>
@@ -7328,7 +7790,11 @@
           <t>DISJUNTOR STECK SERIE SD61 63A 1P CURVA C 3KA</t>
         </is>
       </c>
-      <c r="B282" t="inlineStr"/>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
       <c r="C282" t="inlineStr">
         <is>
           <t>1P</t>
@@ -7341,7 +7807,7 @@
       <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr">
         <is>
-          <t>NA|1P|NA|NA|NA|NA|NA</t>
+          <t>63|1P|NA|NA|NA|NA|NA</t>
         </is>
       </c>
     </row>
@@ -7428,7 +7894,7 @@
       <c r="C286" t="inlineStr"/>
       <c r="D286" t="inlineStr">
         <is>
-          <t>120x220mm</t>
+          <t>120x220</t>
         </is>
       </c>
       <c r="E286" t="inlineStr"/>
@@ -7437,7 +7903,7 @@
       <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr">
         <is>
-          <t>NA|NA|120x220mm|NA|NA|NA|NA</t>
+          <t>NA|NA|120x220|NA|NA|NA|NA</t>
         </is>
       </c>
     </row>
